--- a/partitioning/graph_files/Results.xlsx
+++ b/partitioning/graph_files/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Gym-Grocery-Problem\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Gym-Grocery-Problem\partitioning\graph_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB6F2EC-7F49-409D-9E0E-2CFD16F34159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45131B47-5862-4804-8B8D-280FB9475D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6C75ADB-34F8-437C-9FF4-363AA26CDFCE}"/>
+    <workbookView xWindow="0" yWindow="3900" windowWidth="21600" windowHeight="11385" xr2:uid="{C6C75ADB-34F8-437C-9FF4-363AA26CDFCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>n</t>
   </si>
@@ -61,12 +61,45 @@
   <si>
     <t>Spectral Partitioning + Greedy 3.1</t>
   </si>
+  <si>
+    <t>stores = 20</t>
+  </si>
+  <si>
+    <t>gyms = 20</t>
+  </si>
+  <si>
+    <t>k = 3</t>
+  </si>
+  <si>
+    <t>For all these test results:</t>
+  </si>
+  <si>
+    <t>n_i  = n_(i-1) * 2</t>
+  </si>
+  <si>
+    <t>n_0 = 100</t>
+  </si>
+  <si>
+    <t>i=5</t>
+  </si>
+  <si>
+    <t>gyms_i = gyms_(i-1) * 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stores_i = stores_(i-1) * 2 </t>
+  </si>
+  <si>
+    <t>stores_0 = 20</t>
+  </si>
+  <si>
+    <t>gyms_0 = 20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +110,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -103,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -111,6 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2078,6 +2120,1844 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1179749502808586"/>
+          <c:y val="0.1322490689457182"/>
+          <c:w val="0.69481175304393361"/>
+          <c:h val="0.77217413718149264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Louvain Partitioning + Greedy 3.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>800</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$79:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.2677633999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19535411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68784115199999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.592572466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8192504159999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9465-4D71-B09A-5DA62B469A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spectral Partitioning + Greedy 3.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82779975299999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65842370400000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96992730900000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.495285354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.43261143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9465-4D71-B09A-5DA62B469A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simultaneous Matching (Greedy 2.1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$92:$B$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3305849999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5568209999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8389418000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8627386999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6773428000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9465-4D71-B09A-5DA62B469A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Location Matching (Greedy 2.2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$98:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.033755E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0023630000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7291043999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4022273999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1202848999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9465-4D71-B09A-5DA62B469A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Connection Iterated (Greedy 3)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$104:$B$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42646682499999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6513748779999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7261766029999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.643591839999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.4919051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9465-4D71-B09A-5DA62B469A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Connection with Queue (Greedy 3.1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$110:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2295064E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14347473399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52122869299999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.981866817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7748540779999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9465-4D71-B09A-5DA62B469A29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="827084592"/>
+        <c:axId val="1018576144"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="827084592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018576144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1018576144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827084592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80862152111872898"/>
+          <c:y val="0.15042144613408218"/>
+          <c:w val="0.18977425199968892"/>
+          <c:h val="0.53236189996741623"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1179749502808586"/>
+          <c:y val="0.1322490689457182"/>
+          <c:w val="0.69481175304393361"/>
+          <c:h val="0.77217413718149264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Louvain Partitioning + Greedy 3.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>800</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$79:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.2677633999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19535411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68784115199999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.592572466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8192504159999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D29-49D7-886D-F7F76D882094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spectral Partitioning + Greedy 3.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.82779975299999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65842370400000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96992730900000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.495285354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.43261143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D29-49D7-886D-F7F76D882094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simultaneous Matching (Greedy 2.1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$92:$B$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3305849999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5568209999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8389418000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8627386999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6773428000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D29-49D7-886D-F7F76D882094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Location Matching (Greedy 2.2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$98:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.033755E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0023630000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7291043999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4022273999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1202848999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D29-49D7-886D-F7F76D882094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Connection with Queue (Greedy 3.1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$110:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2295064E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14347473399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52122869299999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.981866817</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7748540779999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D29-49D7-886D-F7F76D882094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="827084592"/>
+        <c:axId val="1018576144"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Best Connection Iterated (Greedy 3)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$104:$B$108</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.42646682499999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.6513748779999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.7261766029999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>26.643591839999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>106.4919051</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7D29-49D7-886D-F7F76D882094}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="827084592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018576144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1018576144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827084592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80862152111872898"/>
+          <c:y val="0.15042144613408218"/>
+          <c:w val="0.18977425199968892"/>
+          <c:h val="0.53236189996741623"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1179749502808586"/>
+          <c:y val="0.1322490689457182"/>
+          <c:w val="0.69481175304393361"/>
+          <c:h val="0.77217413718149264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Louvain Partitioning + Greedy 3.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>100</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>200</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>400</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>800</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1600</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$79:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185.815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>176.58500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C47A-4F30-8982-5610093BCF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spectral Partitioning + Greedy 3.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$86:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.394999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>344.70499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>545.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1205.5999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C47A-4F30-8982-5610093BCF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simultaneous Matching (Greedy 2.1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$92:$C$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>82.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.42500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>778.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1580.385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C47A-4F30-8982-5610093BCF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Location Matching (Greedy 2.2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$98:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375.41500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>781.245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1564.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C47A-4F30-8982-5610093BCF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Connection Iterated (Greedy 3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$104:$C$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>85.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.52500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>381.09500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>779.89499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1571.355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C47A-4F30-8982-5610093BCF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Best Connection with Queue (Greedy 3.1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$110:$C$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>88.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>391.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>790.73500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1586.5350000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C47A-4F30-8982-5610093BCF82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="827084592"/>
+        <c:axId val="1018576144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="827084592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018576144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1018576144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827084592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80862152111872898"/>
+          <c:y val="0.15042144613408218"/>
+          <c:w val="0.18977425199968892"/>
+          <c:h val="0.53236189996741623"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2198,6 +4078,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3231,6 +5231,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3855,6 +7403,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128038</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>70878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7680E1DD-199B-4FF0-AA1C-29A55EB29BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2011426</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>178934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD4C4A1A-3E17-4DD9-AB16-83DDD267CA88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1836964</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>56471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D09E97B-E70B-409C-86B3-BA8ECF9F2E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4883,6 +8545,1035 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
             <a:t>Compute Time (s)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44299</cdr:x>
+      <cdr:y>0.4331</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55701</cdr:x>
+      <cdr:y>0.5669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32F5ED9-DD87-4E8B-84C1-EAD542FBFB25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3552825" y="2959894"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.538</cdr:x>
+      <cdr:y>0.05226</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65202</cdr:x>
+      <cdr:y>0.18606</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F972009-1FF8-47E1-804B-6D3E66F2AD5C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4314825" y="357188"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13183</cdr:x>
+      <cdr:y>0.04948</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82067</cdr:x>
+      <cdr:y>0.10105</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A183A6-C583-4CCE-A691-49E7FAD98BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1057275" y="338138"/>
+          <a:ext cx="5524500" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>Avg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>. Compute Time (s) as the Number of People Increases</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42795</cdr:x>
+      <cdr:y>0.93903</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54394</cdr:x>
+      <cdr:y>0.9906</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B4CD4-D250-4C3A-A672-1696429608C2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3432175" y="6032920"/>
+          <a:ext cx="930275" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>People</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> (n)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0293</cdr:x>
+      <cdr:y>0.32125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07324</cdr:x>
+      <cdr:y>0.61696</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD83DD89-CE84-4AA8-9F1E-565817A5DB0F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-599281" y="3029743"/>
+          <a:ext cx="2020887" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>Compute Time (s)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44299</cdr:x>
+      <cdr:y>0.4331</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55701</cdr:x>
+      <cdr:y>0.5669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32F5ED9-DD87-4E8B-84C1-EAD542FBFB25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3552825" y="2959894"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.538</cdr:x>
+      <cdr:y>0.05226</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65202</cdr:x>
+      <cdr:y>0.18606</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F972009-1FF8-47E1-804B-6D3E66F2AD5C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4314825" y="357188"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13183</cdr:x>
+      <cdr:y>0.04948</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82067</cdr:x>
+      <cdr:y>0.10105</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A183A6-C583-4CCE-A691-49E7FAD98BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1057275" y="338138"/>
+          <a:ext cx="5524500" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>Avg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>. Compute Time (s) as the Number of People Increases</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42795</cdr:x>
+      <cdr:y>0.93903</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54394</cdr:x>
+      <cdr:y>0.9906</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B4CD4-D250-4C3A-A672-1696429608C2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3432175" y="6032920"/>
+          <a:ext cx="930275" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>People</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> (n)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0293</cdr:x>
+      <cdr:y>0.32125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07324</cdr:x>
+      <cdr:y>0.61696</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD83DD89-CE84-4AA8-9F1E-565817A5DB0F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-599281" y="3029743"/>
+          <a:ext cx="2020887" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>Compute Time (s)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44299</cdr:x>
+      <cdr:y>0.4331</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55701</cdr:x>
+      <cdr:y>0.5669</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32F5ED9-DD87-4E8B-84C1-EAD542FBFB25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3552825" y="2959894"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.538</cdr:x>
+      <cdr:y>0.05226</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.65202</cdr:x>
+      <cdr:y>0.18606</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F972009-1FF8-47E1-804B-6D3E66F2AD5C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4314825" y="357188"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13183</cdr:x>
+      <cdr:y>0.04948</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82067</cdr:x>
+      <cdr:y>0.10105</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A183A6-C583-4CCE-A691-49E7FAD98BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1057275" y="338138"/>
+          <a:ext cx="5524500" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1"/>
+            <a:t>Avg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>. Max Component Sizes as the Number of People Increases</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42795</cdr:x>
+      <cdr:y>0.93903</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54394</cdr:x>
+      <cdr:y>0.9906</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B4CD4-D250-4C3A-A672-1696429608C2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3432175" y="6032920"/>
+          <a:ext cx="930275" cy="331304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>People</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> (n)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0293</cdr:x>
+      <cdr:y>0.32125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07324</cdr:x>
+      <cdr:y>0.61696</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD83DD89-CE84-4AA8-9F1E-565817A5DB0F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-599281" y="3029743"/>
+          <a:ext cx="2020887" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>Resulting Max Component Size </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="1"/>
         </a:p>
@@ -5189,10 +9880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51F49C4-77F0-4C7D-80BA-D20D31489EC9}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T141" sqref="T141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,9 +9894,10 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5219,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>6.2677633999999996E-2</v>
       </c>
@@ -5230,7 +9922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>0.196595984</v>
       </c>
@@ -5241,7 +9933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0.504246105</v>
       </c>
@@ -5255,7 +9947,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1.6221844809999999</v>
       </c>
@@ -5265,8 +9957,11 @@
       <c r="D5" s="1">
         <v>800</v>
       </c>
+      <c r="S5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>6.2446855970000001</v>
       </c>
@@ -5276,8 +9971,16 @@
       <c r="D6" s="1">
         <v>1600</v>
       </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5290,8 +9993,11 @@
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>0.82779975299999997</v>
       </c>
@@ -5301,8 +10007,11 @@
       <c r="D9" s="1">
         <v>100</v>
       </c>
+      <c r="S9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0.3420089</v>
       </c>
@@ -5312,8 +10021,11 @@
       <c r="D10" s="1">
         <v>200</v>
       </c>
+      <c r="S10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1.586985673</v>
       </c>
@@ -5323,8 +10035,11 @@
       <c r="D11" s="1">
         <v>400</v>
       </c>
+      <c r="S11" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>2.3662451510000002</v>
       </c>
@@ -5335,7 +10050,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>7.0029777830000004</v>
       </c>
@@ -5346,7 +10061,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -5360,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>4.3305849999999996E-3</v>
       </c>
@@ -5371,7 +10086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>8.8071959999999998E-3</v>
       </c>
@@ -5619,6 +10334,456 @@
         <v>1600</v>
       </c>
       <c r="D37" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>6.2677633999999996E-2</v>
+      </c>
+      <c r="C79" s="1">
+        <v>25.15</v>
+      </c>
+      <c r="D79" s="1">
+        <v>100</v>
+      </c>
+      <c r="S79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>0.19535411</v>
+      </c>
+      <c r="C80" s="1">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="D80" s="1">
+        <v>200</v>
+      </c>
+      <c r="S80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>0.68784115199999996</v>
+      </c>
+      <c r="C81" s="1">
+        <v>88.48</v>
+      </c>
+      <c r="D81" s="1">
+        <v>400</v>
+      </c>
+      <c r="S81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>2.592572466</v>
+      </c>
+      <c r="C82" s="1">
+        <v>185.815</v>
+      </c>
+      <c r="D82" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>9.8192504159999991</v>
+      </c>
+      <c r="C83" s="1">
+        <v>176.58500000000001</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>0.82779975299999997</v>
+      </c>
+      <c r="C86" s="1">
+        <v>37.615000000000002</v>
+      </c>
+      <c r="D86" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>0.65842370400000005</v>
+      </c>
+      <c r="C87" s="1">
+        <v>99.394999999999996</v>
+      </c>
+      <c r="D87" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>0.96992730900000002</v>
+      </c>
+      <c r="C88" s="1">
+        <v>344.70499999999998</v>
+      </c>
+      <c r="D88" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>4.495285354</v>
+      </c>
+      <c r="C89" s="1">
+        <v>545.23</v>
+      </c>
+      <c r="D89" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>13.43261143</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1205.5999999999999</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>4.3305849999999996E-3</v>
+      </c>
+      <c r="C92" s="1">
+        <v>82.55</v>
+      </c>
+      <c r="D92" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>8.5568209999999992E-3</v>
+      </c>
+      <c r="C93" s="1">
+        <v>173.42500000000001</v>
+      </c>
+      <c r="D93" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>1.8389418000000001E-2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>375.19</v>
+      </c>
+      <c r="D94" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>3.8627386999999999E-2</v>
+      </c>
+      <c r="C95" s="1">
+        <v>778.74</v>
+      </c>
+      <c r="D95" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>7.6773428000000005E-2</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1580.385</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>4.033755E-3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>78.28</v>
+      </c>
+      <c r="D98" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>8.0023630000000002E-3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>176.74</v>
+      </c>
+      <c r="D99" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>1.7291043999999998E-2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>375.41500000000002</v>
+      </c>
+      <c r="D100" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>3.4022273999999998E-2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>781.245</v>
+      </c>
+      <c r="D101" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>7.1202848999999999E-2</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1564.83</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>0.42646682499999999</v>
+      </c>
+      <c r="C104" s="1">
+        <v>85.91</v>
+      </c>
+      <c r="D104" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>1.6513748779999999</v>
+      </c>
+      <c r="C105" s="1">
+        <v>173.52500000000001</v>
+      </c>
+      <c r="D105" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>6.7261766029999999</v>
+      </c>
+      <c r="C106" s="1">
+        <v>381.09500000000003</v>
+      </c>
+      <c r="D106" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>26.643591839999999</v>
+      </c>
+      <c r="C107" s="1">
+        <v>779.89499999999998</v>
+      </c>
+      <c r="D107" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>106.4919051</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1571.355</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>4.2295064E-2</v>
+      </c>
+      <c r="C110" s="1">
+        <v>88.23</v>
+      </c>
+      <c r="D110" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>0.14347473399999999</v>
+      </c>
+      <c r="C111" s="1">
+        <v>191.65</v>
+      </c>
+      <c r="D111" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>0.52122869299999997</v>
+      </c>
+      <c r="C112" s="1">
+        <v>391.41</v>
+      </c>
+      <c r="D112" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>1.981866817</v>
+      </c>
+      <c r="C113" s="1">
+        <v>790.73500000000001</v>
+      </c>
+      <c r="D113" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>7.7748540779999997</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1586.5350000000001</v>
+      </c>
+      <c r="D114" s="1">
         <v>1600</v>
       </c>
     </row>
